--- a/Filtered_By_Region/Region I/Region I_LMS.xlsx
+++ b/Filtered_By_Region/Region I/Region I_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BE14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -895,18 +901,11 @@
       <c r="AU2" t="n">
         <v>1</v>
       </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -1075,20 +1074,12 @@
       <c r="AS3" t="n">
         <v>0</v>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>1</v>
       </c>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>1</v>
       </c>
@@ -1257,20 +1248,12 @@
       <c r="AS4" t="n">
         <v>0</v>
       </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="n">
         <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>1</v>
       </c>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>1</v>
       </c>
@@ -1332,7 +1315,7 @@
       <c r="N5" t="n">
         <v>0.45</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>45290</v>
       </c>
       <c r="P5" t="inlineStr">
@@ -1350,13 +1333,13 @@
           <t>08 - 2021</t>
         </is>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="V5" t="inlineStr">
@@ -1364,7 +1347,7 @@
           <t>###############</t>
         </is>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="X5" t="inlineStr">
@@ -1435,20 +1418,12 @@
       <c r="AS5" t="n">
         <v>0</v>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>1</v>
       </c>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>1</v>
       </c>
@@ -1620,20 +1595,12 @@
       <c r="AS6" t="n">
         <v>0</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>1</v>
       </c>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>1</v>
       </c>
@@ -1804,18 +1771,9 @@
       <c r="AS7" t="n">
         <v>0</v>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="n">
         <v>1</v>
       </c>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>1</v>
       </c>
@@ -1877,10 +1835,10 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="3" t="n">
         <v>45459</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>45580</v>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1893,19 +1851,19 @@
           <t>PB-05-2023</t>
         </is>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>45131</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>45152</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>45163</v>
       </c>
       <c r="X8" t="inlineStr">
@@ -1990,14 +1948,9 @@
       <c r="AW8" t="n">
         <v>1</v>
       </c>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="n">
         <v>1</v>
       </c>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2059,10 +2012,10 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="3" t="n">
         <v>45322</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>45406</v>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2070,20 +2023,19 @@
           <t>2023-07-007-PB-Works</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="3" t="n">
         <v>45132</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>45139</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>45152</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>45161</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="X9" t="inlineStr">
@@ -2168,9 +2120,6 @@
       <c r="AW9" t="n">
         <v>1</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -2179,7 +2128,6 @@
       <c r="BB9" t="n">
         <v>1</v>
       </c>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>1</v>
       </c>
@@ -2241,10 +2189,10 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>45297</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>45299</v>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2257,19 +2205,19 @@
           <t>SDOLU-LMS 2023-1</t>
         </is>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="3" t="n">
         <v>45073</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>45115</v>
       </c>
       <c r="X10" t="inlineStr">
@@ -2356,9 +2304,6 @@
       <c r="AW10" t="n">
         <v>1</v>
       </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -2367,7 +2312,6 @@
       <c r="BB10" t="n">
         <v>1</v>
       </c>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
@@ -2431,10 +2375,10 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="3" t="n">
         <v>45624</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>45624</v>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2447,19 +2391,19 @@
           <t>SDOLU-LMS 2023-2</t>
         </is>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="3" t="n">
         <v>45250</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>45286</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>45296</v>
       </c>
       <c r="X11" t="inlineStr">
@@ -2535,19 +2479,12 @@
       <c r="AT11" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="n">
         <v>0</v>
       </c>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="n">
         <v>2</v>
       </c>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>1</v>
       </c>
@@ -2611,10 +2548,10 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>45646</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2627,19 +2564,19 @@
           <t>SDOLU-2024 LMS-01</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <v>45508</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>45377</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>45393</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>45400</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>45467</v>
       </c>
       <c r="X12" t="inlineStr">
@@ -2715,14 +2652,6 @@
       <c r="AT12" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr">
         <is>
           <t>1st</t>
@@ -2791,10 +2720,10 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>45775</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2807,19 +2736,19 @@
           <t>SDOLU-2024 LMS-02</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <v>45508</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>45377</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>45393</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>45400</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>45467</v>
       </c>
       <c r="X13" t="inlineStr">
@@ -2895,14 +2824,6 @@
       <c r="AT13" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr">
         <is>
           <t>1st</t>
@@ -2971,10 +2892,10 @@
       <c r="N14" t="n">
         <v>0.95</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>45782</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2982,20 +2903,19 @@
           <t>2024-06-003-INFRA</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="3" t="n">
         <v>45470</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>45490</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>45519</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>45573</v>
       </c>
       <c r="X14" t="inlineStr">
@@ -3068,15 +2988,6 @@
       <c r="AS14" t="n">
         <v>0.45</v>
       </c>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr">
         <is>
           <t>1st</t>
@@ -3084,6 +2995,79 @@
       </c>
       <c r="BD14" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE14" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region I/Region I_LMS.xlsx
+++ b/Filtered_By_Region/Region I/Region I_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,1479 +447,1508 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="254" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="22" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="31" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="39" customWidth="1" min="24" max="24"/>
+    <col width="48" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Pangasinan I, Lingayen</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>500372</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Siapar Integrated</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>ANDA</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="G2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM &amp; STEEL GATES</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>18456468.13479272</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>18371467.59</v>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>May 4, 2022</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>2021-07-003-INFRA</t>
         </is>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>August 11, 2021</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>August 25, 2021</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>September 6, 2021</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>ABC East Multi Builders and Traders</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Y2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Ilocos Norte</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>100018</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Casilian ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>BACARRA</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>16963583.65</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="L3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n"/>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Ilocos Norte</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>100034</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Morong ES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>BADOC</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>18686642.15</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="L4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Ilocos Sur</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>100577</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Matue PS</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>GREGORIO DEL PILAR (CONCEPCION)</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>15489664.38863384</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>13617950.39</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="5" t="n">
         <v>0.45</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="7" t="n">
         <v>45290</v>
       </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>PB-07-07-2021-0001</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>08 - 2021</t>
         </is>
       </c>
-      <c r="S5" s="5" t="n">
+      <c r="S5" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="T5" s="5" t="n">
+      <c r="T5" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>###############</t>
         </is>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="7" t="n">
         <v>44475</v>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>FFJJ Construction</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Y5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>101119</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Daeng ES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>TUBAO</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, , SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM     
 </t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>14037218.56</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="L6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE IMPLEMENTED</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Pangasinan I, Lingayen</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>101520</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Dalupang ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>MABINI</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>17662294.18510217</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>17662294.18510217</v>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>no movement/accomplishment as of February 2023</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="Z7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Ilocos Norte</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>100001</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Apaleng-Libtong ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>BACARRA</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>16983806.6</v>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="n">
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7" t="n">
         <v>45459</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="7" t="n">
         <v>45580</v>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>PB-05-2023</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>PB-05-2023</t>
         </is>
       </c>
-      <c r="S8" s="5" t="n">
+      <c r="S8" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="7" t="n">
         <v>45131</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="7" t="n">
         <v>45152</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="7" t="n">
         <v>45163</v>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>ELOCIN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="Y8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Ilocos Sur</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>100477</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Lamagan PS</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>CERVANTES</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>13462349.99</v>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="n">
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7" t="n">
         <v>45322</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="7" t="n">
         <v>45406</v>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>2023-07-007-PB-Works</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="5" t="n">
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="7" t="n">
         <v>45132</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="7" t="n">
         <v>45139</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="7" t="n">
         <v>45152</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="7" t="n">
         <v>45161</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="7" t="n">
         <v>45173</v>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>WWW.Construction</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="Y9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>151005</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Lacong ES-Annex</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>SAN GABRIEL</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>16946057.06</v>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="n">
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7" t="n">
         <v>45297</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>2023LMSRO1-01</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>SDOLU-LMS 2023-1</t>
         </is>
       </c>
-      <c r="S10" s="5" t="n">
+      <c r="S10" s="7" t="n">
         <v>45073</v>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T10" s="7" t="n">
         <v>45082</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="V10" s="5" t="n">
+      <c r="V10" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="7" t="n">
         <v>45115</v>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>HG LOPEZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>DIVISION IMPLEMENTED COMPLETED</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>101119</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Daeng ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>TUBAO</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>17158043.98</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>16937084.62</v>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="n">
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>2023LMSRO1-02</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>SDOLU-LMS 2023-2</t>
         </is>
       </c>
-      <c r="S11" s="5" t="n">
+      <c r="S11" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T11" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="7" t="n">
         <v>45286</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>LAV CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Completed DIVISION IMPLEMENTED  </t>
         </is>
       </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Z11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>101087</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Sasaba PS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>SANTOL</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>17022941.1</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>16772636.16</v>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="n">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7" t="n">
         <v>45646</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="7" t="n">
         <v>45636</v>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>2024LMS RO1-01</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>SDOLU-2024 LMS-01</t>
         </is>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="7" t="n">
         <v>45508</v>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="7" t="n">
         <v>45377</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="7" t="n">
         <v>45393</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="7" t="n">
         <v>45400</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="7" t="n">
         <v>45467</v>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>DPV BUILDERS AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Z12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>100821</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Bitag Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>ARINGAY</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>17910473.72</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>17679318.86</v>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="n">
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7" t="n">
         <v>45775</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="7" t="n">
         <v>45783</v>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="5" t="inlineStr">
         <is>
           <t>2024LMS RO1-02</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>SDOLU-2024 LMS-02</t>
         </is>
       </c>
-      <c r="S13" s="5" t="n">
+      <c r="S13" s="7" t="n">
         <v>45508</v>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="7" t="n">
         <v>45377</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="7" t="n">
         <v>45393</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="7" t="n">
         <v>45400</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="7" t="n">
         <v>45467</v>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>LAV CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="Z13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Pangasinan I, Lingayen</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>500371</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Awag Integrated School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>ANDA</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>11559999.13</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="7" t="n">
         <v>45782</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="7" t="n">
         <v>45779</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>2024-06-003-INFRA</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr"/>
-      <c r="S14" s="5" t="n">
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="7" t="n">
         <v>45470</v>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="7" t="n">
         <v>45490</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="7" t="n">
         <v>45573</v>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>JFM Altitude Construction Corporation</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>for final inspection</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="Z14" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region I/Region I_LMS.xlsx
+++ b/Filtered_By_Region/Region I/Region I_LMS.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region I/Region I_LMS.xlsx
+++ b/Filtered_By_Region/Region I/Region I_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,245 +453,249 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="33" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="254" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="254" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
-    <col width="22" customWidth="1" min="17" max="17"/>
-    <col width="19" customWidth="1" min="18" max="18"/>
-    <col width="31" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="39" customWidth="1" min="24" max="24"/>
-    <col width="48" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="22" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="39" customWidth="1" min="25" max="25"/>
+    <col width="48" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Pangasinan I, Lingayen</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>500372</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Siapar Integrated</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>ANDA</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM &amp; STEEL GATES</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>18456468.13479272</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>18371467.59</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>May 4, 2022</t>
         </is>
       </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
           <t>2021-07-003-INFRA</t>
         </is>
       </c>
-      <c r="R2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S2" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T2" s="5" t="inlineStr">
         <is>
@@ -700,106 +704,109 @@
       </c>
       <c r="U2" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V2" s="5" t="inlineStr">
+        <is>
           <t>August 11, 2021</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>August 25, 2021</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>September 6, 2021</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>ABC East Multi Builders and Traders</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6" t="n"/>
+      <c r="Z2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Ilocos Norte</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>100018</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Casilian ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>BACARRA</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>16963583.65</v>
       </c>
-      <c r="L3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="O3" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P3" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="n">
-        <v>0</v>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S3" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
@@ -821,91 +828,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X3" s="5" t="n">
-        <v>0</v>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="6" t="n"/>
+      <c r="Z3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Ilocos Norte</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>100034</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Morong ES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>BADOC</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET), WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>18686642.15</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="O4" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S4" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
@@ -927,194 +937,200 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X4" s="5" t="n">
-        <v>0</v>
+      <c r="X4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z4" s="6" t="n"/>
+      <c r="Z4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Ilocos Sur</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>100577</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Matue PS</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>GREGORIO DEL PILAR (CONCEPCION)</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>15489664.38863384</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>13617950.39</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="O5" s="5" t="n">
         <v>0.45</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="P5" s="7" t="n">
         <v>45290</v>
       </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
           <t>PB-07-07-2021-0001</t>
         </is>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>08 - 2021</t>
         </is>
       </c>
-      <c r="S5" s="7" t="n">
+      <c r="T5" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="T5" s="7" t="n">
+      <c r="U5" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="U5" s="7" t="n">
+      <c r="V5" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>###############</t>
         </is>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="X5" s="7" t="n">
         <v>44475</v>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>FFJJ Construction</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6" t="n"/>
+      <c r="Z5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>101119</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Daeng ES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>TUBAO</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, , SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM     
 </t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>14037218.56</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="O6" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
@@ -1136,93 +1152,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE IMPLEMENTED</t>
         </is>
       </c>
-      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Pangasinan I, Lingayen</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>101520</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Dalupang ES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>MABINI</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>17662294.18510217</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>17662294.18510217</v>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="5" t="n">
+        <v>17662294.18510217</v>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Abandoned</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="O7" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
@@ -1244,715 +1263,741 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>no movement/accomplishment as of February 2023</t>
         </is>
       </c>
-      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>301</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Ilocos Norte</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>100001</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Apaleng-Libtong ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>BACARRA</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>16983806.6</v>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="n">
         <v>45459</v>
       </c>
-      <c r="P8" s="7" t="n">
+      <c r="Q8" s="7" t="n">
         <v>45580</v>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>PB-05-2023</t>
         </is>
       </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>PB-05-2023</t>
         </is>
       </c>
-      <c r="S8" s="7" t="n">
+      <c r="T8" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="T8" s="7" t="n">
+      <c r="U8" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="U8" s="7" t="n">
+      <c r="V8" s="7" t="n">
         <v>45131</v>
       </c>
-      <c r="V8" s="7" t="n">
+      <c r="W8" s="7" t="n">
         <v>45152</v>
       </c>
-      <c r="W8" s="7" t="n">
+      <c r="X8" s="7" t="n">
         <v>45163</v>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>ELOCIN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6" t="n"/>
+      <c r="Z8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>302</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Ilocos Sur</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>100477</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Lamagan PS</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>CERVANTES</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>13462349.99</v>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7" t="n">
         <v>45322</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="Q9" s="7" t="n">
         <v>45406</v>
       </c>
-      <c r="Q9" s="5" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>2023-07-007-PB-Works</t>
         </is>
       </c>
-      <c r="R9" s="5" t="inlineStr"/>
-      <c r="S9" s="7" t="n">
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="7" t="n">
         <v>45132</v>
       </c>
-      <c r="T9" s="7" t="n">
+      <c r="U9" s="7" t="n">
         <v>45139</v>
       </c>
-      <c r="U9" s="7" t="n">
+      <c r="V9" s="7" t="n">
         <v>45152</v>
       </c>
-      <c r="V9" s="7" t="n">
+      <c r="W9" s="7" t="n">
         <v>45161</v>
       </c>
-      <c r="W9" s="7" t="n">
+      <c r="X9" s="7" t="n">
         <v>45173</v>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>WWW.Construction</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6" t="n"/>
+      <c r="Z9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>303</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>151005</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Lacong ES-Annex</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>SAN GABRIEL</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>17170000</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>16946057.06</v>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <v>45297</v>
       </c>
-      <c r="P10" s="7" t="n">
+      <c r="Q10" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="Q10" s="5" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>2023LMSRO1-01</t>
         </is>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>SDOLU-LMS 2023-1</t>
         </is>
       </c>
-      <c r="S10" s="7" t="n">
+      <c r="T10" s="7" t="n">
         <v>45073</v>
       </c>
-      <c r="T10" s="7" t="n">
+      <c r="U10" s="7" t="n">
         <v>45082</v>
       </c>
-      <c r="U10" s="7" t="n">
+      <c r="V10" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="V10" s="7" t="n">
+      <c r="W10" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="W10" s="7" t="n">
+      <c r="X10" s="7" t="n">
         <v>45115</v>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>HG LOPEZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>DIVISION IMPLEMENTED COMPLETED</t>
         </is>
       </c>
-      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>304</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>101119</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Daeng ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>TUBAO</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>17158043.98</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>16937084.62</v>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>45624</v>
+      <c r="O11" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>45624</v>
       </c>
-      <c r="Q11" s="5" t="inlineStr">
+      <c r="Q11" s="7" t="n">
+        <v>45624</v>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>2023LMSRO1-02</t>
         </is>
       </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>SDOLU-LMS 2023-2</t>
         </is>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="T11" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="T11" s="7" t="n">
+      <c r="U11" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="U11" s="7" t="n">
+      <c r="V11" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V11" s="7" t="n">
+      <c r="W11" s="7" t="n">
         <v>45286</v>
       </c>
-      <c r="W11" s="7" t="n">
+      <c r="X11" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>LAV CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Completed DIVISION IMPLEMENTED  </t>
         </is>
       </c>
-      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>401</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>101087</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Sasaba PS</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>SANTOL</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>17022941.1</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>16772636.16</v>
       </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <v>45646</v>
       </c>
-      <c r="P12" s="7" t="n">
+      <c r="Q12" s="7" t="n">
         <v>45636</v>
       </c>
-      <c r="Q12" s="5" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>2024LMS RO1-01</t>
         </is>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>SDOLU-2024 LMS-01</t>
         </is>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="T12" s="7" t="n">
         <v>45508</v>
       </c>
-      <c r="T12" s="7" t="n">
+      <c r="U12" s="7" t="n">
         <v>45377</v>
       </c>
-      <c r="U12" s="7" t="n">
+      <c r="V12" s="7" t="n">
         <v>45393</v>
       </c>
-      <c r="V12" s="7" t="n">
+      <c r="W12" s="7" t="n">
         <v>45400</v>
       </c>
-      <c r="W12" s="7" t="n">
+      <c r="X12" s="7" t="n">
         <v>45467</v>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>DPV BUILDERS AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>402</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>La Union</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>100821</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Bitag Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>ARINGAY</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>17910473.72</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>17679318.86</v>
       </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <v>45775</v>
       </c>
-      <c r="P13" s="7" t="n">
+      <c r="Q13" s="7" t="n">
         <v>45783</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>2024LMS RO1-02</t>
         </is>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>SDOLU-2024 LMS-02</t>
         </is>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="T13" s="7" t="n">
         <v>45508</v>
       </c>
-      <c r="T13" s="7" t="n">
+      <c r="U13" s="7" t="n">
         <v>45377</v>
       </c>
-      <c r="U13" s="7" t="n">
+      <c r="V13" s="7" t="n">
         <v>45393</v>
       </c>
-      <c r="V13" s="7" t="n">
+      <c r="W13" s="7" t="n">
         <v>45400</v>
       </c>
-      <c r="W13" s="7" t="n">
+      <c r="X13" s="7" t="n">
         <v>45467</v>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>LAV CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>403</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region I</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Pangasinan I, Lingayen</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>500371</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Awag Integrated School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>ANDA</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>11559999.13</v>
       </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="O14" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="P14" s="7" t="n">
         <v>45782</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="Q14" s="7" t="n">
         <v>45779</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>2024-06-003-INFRA</t>
         </is>
       </c>
-      <c r="R14" s="5" t="inlineStr"/>
-      <c r="S14" s="7" t="n">
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="7" t="n">
         <v>45470</v>
       </c>
-      <c r="T14" s="7" t="n">
+      <c r="U14" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="U14" s="7" t="n">
+      <c r="V14" s="7" t="n">
         <v>45490</v>
       </c>
-      <c r="V14" s="7" t="n">
+      <c r="W14" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="X14" s="7" t="n">
         <v>45573</v>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>JFM Altitude Construction Corporation</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>for final inspection</t>
         </is>
       </c>
-      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z14" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA14" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
